--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://msoe365-my.sharepoint.com/personal/jankowskib_msoe_edu/Documents/Documents/Semester 3/Systems Programming/multiprocessing-turney-benjankowski/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="11_F25DC773A252ABDACC10482F999D4D1E5BDE58F0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{17714054-BF4E-421D-AB5D-2D55E1CA74FA}"/>
+  <xr:revisionPtr revIDLastSave="105" documentId="11_F25DC773A252ABDACC10482F999D4D1E5BDE58F0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BA031F7E-34F7-4D53-B10C-56F1C5DC97F1}"/>
   <bookViews>
-    <workbookView xWindow="6165" yWindow="2355" windowWidth="21600" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="510" yWindow="690" windowWidth="21600" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,20 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>Processes</t>
+  </si>
+  <si>
+    <t>Thread</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1159,13 +1173,13 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>28574</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1456,76 +1470,218 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="13" max="13" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1</v>
       </c>
       <c r="B1">
         <v>2.4300000000000002</v>
       </c>
+      <c r="M1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
       <c r="B2">
         <v>1.3</v>
       </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>2.2400000000000002</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>5</v>
       </c>
       <c r="B3">
         <v>1.1200000000000001</v>
       </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>5</v>
+      </c>
+      <c r="O3">
+        <v>0.53</v>
+      </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>10</v>
       </c>
       <c r="B4">
         <v>0.49</v>
       </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>10</v>
+      </c>
+      <c r="O4">
+        <v>0.47</v>
+      </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>20</v>
       </c>
       <c r="B5">
         <v>0.42</v>
       </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>12</v>
+      </c>
+      <c r="O5">
+        <v>0.53</v>
+      </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>30</v>
       </c>
       <c r="B6">
         <v>0.41</v>
       </c>
+      <c r="M6">
+        <v>2</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>1.53</v>
+      </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>40</v>
       </c>
       <c r="B7">
         <v>0.38</v>
       </c>
+      <c r="M7">
+        <v>2</v>
+      </c>
+      <c r="N7">
+        <v>5</v>
+      </c>
+      <c r="O7">
+        <v>0.57999999999999996</v>
+      </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>50</v>
       </c>
       <c r="B8">
         <v>0.35</v>
+      </c>
+      <c r="M8">
+        <v>2</v>
+      </c>
+      <c r="N8">
+        <v>10</v>
+      </c>
+      <c r="O8">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M9">
+        <v>2</v>
+      </c>
+      <c r="N9">
+        <v>12</v>
+      </c>
+      <c r="O9">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M10">
+        <v>4</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M11">
+        <v>4</v>
+      </c>
+      <c r="N11">
+        <v>5</v>
+      </c>
+      <c r="O11">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M12">
+        <v>4</v>
+      </c>
+      <c r="N12">
+        <v>10</v>
+      </c>
+      <c r="O12">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M13">
+        <v>4</v>
+      </c>
+      <c r="N13">
+        <v>12</v>
+      </c>
+      <c r="O13">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M14">
+        <v>12</v>
+      </c>
+      <c r="N14">
+        <v>12</v>
+      </c>
+      <c r="O14">
+        <v>0.21</v>
       </c>
     </row>
   </sheetData>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="105" documentId="11_F25DC773A252ABDACC10482F999D4D1E5BDE58F0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BA031F7E-34F7-4D53-B10C-56F1C5DC97F1}"/>
   <bookViews>
-    <workbookView xWindow="510" yWindow="690" windowWidth="21600" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7200" yWindow="2925" windowWidth="21600" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
